--- a/327-automatisation-mapping/ig/StructureDefinition-as-ext-lieu-dit.xlsx
+++ b/327-automatisation-mapping/ig/StructureDefinition-as-ext-lieu-dit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-14T13:39:21+00:00</t>
+    <t>2024-03-19T13:17:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -237,10 +237,10 @@
     <t>Constraint(s)</t>
   </si>
   <si>
+    <t>Mapping: Spécification métier vers l'extension AsLieuDit</t>
+  </si>
+  <si>
     <t>Mapping: RIM Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: Spécification métier vers l'extension AsLieuDit</t>
   </si>
   <si>
     <t/>
@@ -696,8 +696,8 @@
     <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="59.90234375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="59.90234375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1022,10 +1022,10 @@
         <v>76</v>
       </c>
       <c r="AK3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL3" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="AL3" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="4">
@@ -1236,10 +1236,10 @@
         <v>76</v>
       </c>
       <c r="AK5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL5" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="AL5" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="6">
@@ -1342,10 +1342,10 @@
         <v>105</v>
       </c>
       <c r="AK6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AL6" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="AL6" t="s" s="2">
-        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/327-automatisation-mapping/ig/StructureDefinition-as-ext-lieu-dit.xlsx
+++ b/327-automatisation-mapping/ig/StructureDefinition-as-ext-lieu-dit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T13:17:15+00:00</t>
+    <t>2024-03-19T15:03:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
